--- a/output/Total_time_range_data/辽宁省/鞍山市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/鞍山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,414 +436,455 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>省第十三届人大五次会议关于辽宁省教育区管校聘的建议第号建议的答复</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-5-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/202105/0162208203160932.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['省第十三届人大五次会议《关于辽宁省教育区管校聘的建议》 第1001号建议的答复-省第十三届人大五次会议（2021年）-鞍山市政府', '为认真贯彻《辽宁省教育厅 辽宁省机构编制委员会办公室 辽宁省人力资源和社会保障厅关于推进中小学教师“县管校聘”管理制度改革的指导意见》（辽教发﹝2019﹞18号），鞍山市于2019年5月出台《鞍山市人民政府办公室关于推进中小学教师“县管校聘”管理制度改革的实施意见》(鞍政办﹝2019﹞18号)，并组织各县（市）区相关负责人到山东潍坊、辽宁盘锦市考察学习，召开推进会。各县区积极开展有关工作，如我市千山区,采取征求意见、座谈等方式多方对区内教师队伍的现状、开展“区管校聘”的面临的问题等情况进行了调研，形成调研报告，并在此基础上制定了《千山区关于推进中小学教师“县管校聘”管理制度改革的实施意见》（征求意见稿）。为加快推进“区管校聘”改革落地生效，千山区正从多方面加快工作进度，一是积极征求编制、财政、人社等部门和基层校长、教师的意见，进一步完善《千山区关于推进中小学教师“区管校聘”管理制度改革的实施意见》（征求意见稿）。二是逐步完善实施“区管校聘”改革工作相配套的各项措施方案，为“区管校聘”工作的顺利实施奠定基础。三是围绕义务教育优质均衡发展，通过实施集团化办学，充分发挥优质品牌学校辐射作用，加强师资柔性流动，有序共享优质教育资源，实现集团内教育资源均衡化、优质化，缩小校际差距。四是按照“按需设岗、分层聘任、合同管理、绩效激励”的总要求，加快推动教师由“学校人”向“系统人”转变，激发教师队伍活力。', '自2011年7月份鞍山市实行事业单位岗位设置以来，市直事业单位专业技术岗位聘用按照《关于全省事业单位实施岗位设置管理有关问题的处理意见》（辽人发〔2008〕16号）文件、《关于印发辽宁省事业单位专业技术岗位结构比例控制标准的通知》（辽人发〔2009〕97号）文件、《关于全市事业单位岗位设置管理有关问题的处理意见》（鞍人社发〔2011〕92号）文件执行，市直事业单位专业技术岗位设置按照十三级分级管理，市直事业单位设置了专业技术五级、六级岗位并严格按照相关规定进行晋升等级并兑现相关级别待遇。', '目前，我市有部分县（市）区没有按照十三级管理进行专业技术岗位设置。还有部分县（市）区虽然按照十三级管理进行了专业技术岗位设置，但是只聘用在相应层级的最低等级，导致专业技术人员晋升空间狭小。鞍山市一直在积极推进各县（市）区事业单位专业技术岗位设置工作，多次调研、协调各县（市）区政府，寻求突破束缚县（市）区专业技术人员晋升空间的瓶颈。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>36</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>鞍山市行政执法领域工作进展及经验做法报告</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-5-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/202205/0165258679703565.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['市司法局紧紧围绕市委、市政府中心工作，以法治化营商环境建设精神为指引，进一步强化行政执法协调监督举措，按照《辽宁省纪委监委营商环境监督行动方案》有关开展行政执法专项整治工作要求，牵头协调各行政执法部门,在扎实完成执法监督基本工作的成果之上，不断开拓进取，实现了多项工作创新。', '本部门行政执法事项清单，其中包括行政许可事项322项、行政处罚事项2092项、其他执法事项742项。清单的建立', '组织开展了全市行政执法人员培训考试，用三年时间完成了全市7300余名行政执法人员的行政执法培训考核工作。', '针对新修订的《行政处罚法》，开展了对30家行政执法部门的系统内部培训和考核，完成了7个县市区司法局的督查，并由各县（市）区司法局组织本地区新法培训考核。', '开展了执法情况调研工作，针对发现的执法问题，现场分析原因，提出整改意见及工作建议，', '制定出台《鞍山市行政执法争议协调办法》， 将我市行政机关之间的行政执法争议的解决纳入了法治化的管理轨', '制定出台了《鞍山市关于进一步健全行政裁决制度加强行政裁决工作实施方案》，不断完善行政裁决工作体制机制，强化行政机关解决同行政管理活动密切相关的民事纠纷功能。《方案》的实施，将充分发挥行政裁决在解决矛盾纠纷、建设法治政府、维护社会和谐稳定、构建“活力鞍山”中的重要作用。', '在市场监管、生态环境、交通运输、文化旅游、农业、应急等领域综合执法队伍组建、职能确认、职权划分、法制审核部门占比等环节严格把关，积极提出意见和建议，如期完成了队伍组建，', '顺利开展工作。在推进乡镇街一支队伍管执法、开发区综合执法改革等工作中，积极配合市委政研室、编委办，推进改革顺利进行。解决执法争议，开展个案监督，在审批、城市管理等领域，针对办案程序、适用法律等环节出现的问题，及时提出监督意见，监督整改，取得了实效。', '严格落实《辽宁省行政责任追究办法》和《辽宁省行政执法监督条例》，大力开展个案监督工作', '开展了协调监督，群众满意度达到100%。自2020年起，我市32家执法部门在省内率先公布了行政执法监督举报电话，在我市五家重点企业设立了“辽宁省执法监督点”。', '通过横向协调推动市直29家行政执法部门，纵向指导监督7个县（市）区、3个开发区管委会，覆盖全市144个执法主体，全方位落实，完成了', '推进了部门间联合执法工作，真正实现了涉企执法“一次检查，综合体检”的营商服务理念。', '，一是首次采用两个行政执法机关联合工作共同推进“双随机、一公开”监管的工作模式；二是首次实现了全地区行政执法机关在', '系统制定计划的模式；三是首次在平台制定联合执法检查计划；四是实现了平台使用全省领先；五是率先制定了《鞍山市市场监管领域“双随机、一公开”监管工作操作规程》，规范化工作省内领先，得到了省司法厅、省市场局的认可。', '组织相关部门赴营口自贸区考察学习包容免罚工作经验，成功复制并实施行政执法“包容免罚”模式，结合本地实际将我市', '根据《清单》明确的免罚内容，对市场主体发生符合规定情形的1308项轻微违法违规经营行为免予处罚。', '将逐步引导市场建立内部自律监督机制，助力我市法治化营商环境的优化，为新经济、新业态、新从业者提供有别于过往的相对宽松、自由的成长环境，推进我市经济社会全方位振兴发展。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>鞍山经贸代表团赴上海参加辽宁长三角招商引资促进周活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-7-19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/202107/0162666418044554.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['鞍山经贸代表团赴上海参加“辽宁—长三角招商引资促进周”活动-工作推进-鞍山市人民政府', '7月12日至16日，市委副书记、代市长王忠昆率我市经贸代表团赴上海参加“辽宁—长三角招商引资促进周”活动，成功签约推进一批数字化、智能化、绿色化的高质量产业项目，并实地考察上海城市精细化管理工作。', '集中洽谈对接一批产业关联度高的强企名企，赋能“老原新”产业升级。对接会上，签约项目10个，签约额94.69亿元；会下，签约项目4个，签约额7.5亿元。', '活动期间，王忠昆先后拜访和会见了中国葛洲坝集团建设工程有限公司、上海真灼科技股份有限公司、国电电力发展股份有限公司、上海中能企业发展有限公司等25家企业负责人，围绕清洁能源、智能制造、生物科技、智慧城市、', '拜访和会见过程中，王忠昆详细介绍了鞍山资源优势、产业基础、政策环境和发展规划，并诚挚邀请广大企业家关注鞍山、布局鞍山、投资鞍山。', '他说，当前鞍山正深入贯彻落实习近平总书记关于东北、辽宁振兴发展重要讲话和指示精神，', '转型升级步伐加快，发展活力不断增强，赢得了一批央企和行业领军企业的青睐。希望广大企业家把握', '打造“办事方便、法治良好、成本竞争力强、生态宜居”的一流营商环境，为企业发展、项目建设创造良好条件、提供最优服务，实现互惠双赢。', '发展活力强、市场潜力大，愿意深耕鞍山市场，发挥资金、人才、管理、技术等优势，进一步拓展合作领域，推进在谈在建项目,带动上下游企业来鞍考察投资，为鞍山振兴发展作出积极贡献。', '在沪期间，王忠昆一行来到上海市浦东新区城市运行综合管理中心及陆家嘴街道，就城市精细化管理工作进行了实地考察。他强调，要树牢人民城市人民建、人民城市为人民理念，抓好考察学习成果转化，加速推进鞍山“一网通办”、城市更新、老旧小区改造、社区建设、口袋公园建设等工作，以“工匠精神”和“绣花功夫”推进城市建设管理，让城市更富特色、更具品质、更有温度，让全市人民在城市发展中拥有更多获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>36</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>鞍山市工信局年前三季度政府工作报告和重强抓专项行动执行结果情况</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2019-9-24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201909/0157239814176477.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['鞍山市工信局2019年前三季度政府工作报告和“重强抓”专项行动执行结果情况-政府工作报告和“重实干、强执行、抓落实”专项行动执行情况-鞍山市人民政府', '年前三季度，市工信局在市委、市政府的正确领导下，严格贯彻落实国家、省、市各项重要工作部署，按照全省“重实干、强执行、抓落实”专项行动的总体要求，狠抓工业运行，加快推动“两翼一体化”建设，着力支持民营企业发展，了大推动双鞍融合发展，圆满完成了各项指标任务。', '今年市工信局共计承担10项省考核指标，22个节点任务，全部完成并通过。9月共有省任务节点5项，预计能够全部完成。其中，制定完成了《鞍山市“个转企、小升规、规升巨”培育行动实施方案》；初步建立起2019年“小升规”、“规升巨”企业培育库;与工信部人才交流中心共同举办智能制造助力转型升级百城巡讲活动（鞍山站）。每季度召开工业经济运行情况座谈会，对我市经济运行情况进行分析。按照省工信厅要求，积极推进先进装备基地建设。组织开展“地条钢”死灰复燃排查工作。组织开展新增电力用户准入工作，并组织开展电力市场化交易工作。组织我市企业赴江苏开展产业合作交流工作。组织2019年度省级创业创新示范基地申报工作。组织开展清欠工作，结合鞍山各地区情况，制定《鞍山市清理拖欠民营企业中小企业账款整体解决方案》，整理上报大型国有企业、政府部门清欠台账明细和清偿计划，核实我市“零报告”情况，每月按照要求继续推进清欠工作。', '按照“两翼一体化”发展战略，科学制定钢铁、装备制造、化工三大支柱产业，菱镁、消费品两大特色产业，新能源新材料、新一代信息技术两大新兴产业的中长期发展规划，目前初稿已完成。', '一是加快推进钢铁产能置换。宝得1250立方米高炉改造项目顺利实施，预计11月份投产；恒盛铸业1350立方米高炉改造项目环评资料编写完成，年底前完成开工手续，2020年开始项目建设；后英钢铁1350立方米炼铁高炉改造项目向省工信厅报送《关于后英集团和恒盛铸业新建炼铁高炉产能减量置换项目申请延期建设的请示》，申请将后英集团项目延期至2023年12月31日、恒盛铸业项目延期至2022年12月31日。', '二是加快推进项目建设及技术进步。泰格金属制品有限公司新型超薄超硬出口彩涂板项目实现达产；鞍钢钢绳钢丝绳制品生产线项目部分投产；鞍山和四利科技有限公司废钢处理、鞍山电磁阀有限公司高端电磁阀生产线建设项目实现投产；辽宁布顿科技有限公司大桥缆索合金钢丝及特种钢绳、钢丝、钢绞线项目土建开工；辽宁紫竹集团开发的铁塔用角钢供给国家电网，ETC龙门架被沈大高速使用。', '三是开展“地条钢”检查。为巩固我市取缔“地条钢”工作成果，防范“地条钢”死灰复燃，与市发改委、市市场局对我市具有冶炼能力的企业进行全覆盖摸底排查。', '一是着力建设国际镁建材及装配式建筑产业园。联合相关部门在海城经开区初步规划了5平方公里土地用于产业园建设，其中起步区面积1.7平方公里，利用原有闲置厂房计20万平方米招商引进镁建材企业。国内镁建材领军企业启程德瑞已做好入驻准备，鸿星太阳光电已有投资意向。同时，为确保入驻镁建材产业园企业原料稳定供应，海城市政府和辽宁菱镁矿业公司，计划为入园企业提供菱镁矿和轻烧镁供给配额，保障企业稳定生产。', '二是加快推进项目建设。辽宁东升宇辰装备制造有限公司新型磨粉设备制造项目、海城市中兴镁质合成材料有限公司海城镁质原料生产基地建设项目、海城市康尧镁质材料制造有限公司镁质耐火砖项目实现投产。', '三是做好第八届镁博会筹备工作。第八届中国辽宁（鞍山·海城）国际镁质材料（新材料成果）博览会成功在鞍召开。积极鼓励企业积极参会参展；向中国建材、美国空气工作发邀请函，协调参会事宜。', '一是加快发展智能制造。成功承办工信部“智能制造助力转型升级百城巡讲”活动，邀请到原工信部装备司张相木司长等3名国内顶尖的专家来鞍进行政策解析和案例分享，对我市的智能制造和转型升级工作进行指导。', '二是加快推进技术进步。星空钠电自主研发的世界首条钠离子电池生产线投入运行，开辟了全新的产业路径；欧菲特精密机械制造有限公司自主研制的世界首台大幅面高速间歇式混合轮转印刷机，填补了世界空白；福鞍集团生产的分布式能源燃气轮机成为国际能源局第一批创新发展示范项目。', '三是积极推动强强联合。成功邀请中国电子技术标准化研究院各位专家来鞍与政府部门领导以及企业家代表座谈交流，并与鞍山市政府签订了合作框架协议。', '、用发展高新技术产业，形成高新技术产业集群，同时用高新技术改造提升传统工业和农产品深加工业', '一是大力发展消费品产业。先后带领鞍山老窖酒厂等十余户酒企赴中国食品发酵研究院、湖北劲酒集团、北京牛栏山集团、四川泸州老窖等权威机构和酒企考察学习；在分管市领导的协调下，委托中国标准化研究院王志民博士起草了“东北香型白酒”（暂定名）团体标准；积极承接和筹备全国工艺美术座谈会、2019年“创客中国”纺织服装中小企业创新创业大赛等国家级活动；推荐辽宁西柳电子商务产业园（暨辽宁西柳纺织服装创意设计产业园）申报国家纺织服装创意设计试点园区（平台）；推荐海城蓝鑫箱包集团、鞍山雨虹塑窗有限公司申报第六批升级和创新型消费品指导目录；带领台安农高园、汤泉一品等食品企业赴北京首农集团、西安农高园、银桥乳业、烟台中宠股份、双塔食品等园区和企业洽谈合作。', '三是着手起草制定《鞍山市5G产业发展实施方案（2019-2020年）》；推荐“西柳之星电商综合服务平台”申报2019年省级新型信息消费示范项目;组织鞍钢自动化、科大物联申报“5G+工业互联网”试点示范工厂。', '四是发展军民融合产业。组织我市企业参加省委军民融合办、省工业和信息化厅在沈阳理工大学联合举办的辽宁省省属高校军民融合科研成果转化对接会；积极辅导辽宁星空新能源发展有限公司申请军工保密资质认证；帮助森远集团办理武器装备承制单位资格业务增项。', '一是加快推进地方鞍钢共建产业园建设。鞍钢废钢加工一期50万吨处理项目竣工投产；年产20万吨煤焦油深加工项目达标达产；年产4万吨针状焦项目正式投产出焦。', '二是双鞍共同谋划产业发展。在新能源汽车及零部件产业方面，双鞍共同举办了鞍山新能源汽车及零部件产业发展论坛，来自中国工程院等院所和企业的13位专家围绕新能源汽车及零部件产业发展分别做了专题报告，各界来宾共120余人参加了此次论坛。在气体产业方面，空气化工产品（中国）投资有限公司与鞍钢加氢站项目已在鞍注册；在工业固废综合利用方面，推荐鞍钢科技发展有限公司等4家企业申报工业固体废物资源综合利用评价机构；在镁耐火产业方面，鞍钢耐火与海城镁矿耐火、峰驰集团、和丰耐火合作正在有序推进；在智能制造方面，市政府与鞍钢集团信息化产业有限公司召开鞍山市融合发展会议专题会议，双方共同推动地方制造业向智能制造转型升级；在贸易服务方面，市政府整合全市外贸资源，与鞍钢国贸公司合资组建鞍山市外贸集团有限公司；在人才交流方面，市委组织部与鞍钢集团党委组织部签订“双鞍”干部人才工作战略合作协议。', '三是积极推动地企合作。帮助钢锋风机与德邻路港对接，与鞍钢国贸公司建立了全方位的工作联系，国贸公司还积极为钢锋风机提供钢材期货市场和现货市场的相关信息，降低了企业生产运营成本。', '四是帮助鞍钢解决历史遗留问题。协调组织召开鞍钢集团与鞍山市土地置换工作推进会议，就相关工作进展情况进行了调度；鞍钢集团矿业有限公司西果园扩容征地、鞍钢红楼招待所电力项目、铁西区还建鞍山钢铁房屋配套等诸多事宜正在有序推进解决中。', '一是成立了民营企业发展服务委员会，综合了市民营办、减负办、困难企业帮扶领导小组办公室的相关职能，系统的开展支持民营企业发展工作。', '二是加快落实好《鞍山市加快民营企业发展的若干政策和措施》，在已有的50条措施基础上，又制定了41条具体的实施细则及30条实施举措。市级财政安排了资金3.3亿元，专门用于支持民营企业发展。', '三是成立了民营企业专家咨询委员会。为民营企业在发展规划、风险管控、企业管理、法律、财税、投融资咨询等方面提供支持。市民营办与北京山天大蓄集团正式签定《知识产权服务战略合作框架协议》。', '四是对全市规上企业开展帮扶工作。制定帮扶工作方案，明确帮扶责任，确定帮扶任务，以科室为单位，利用实地走访的形式对全市规上企业开展分层次的问题调查。对全部规上企业进行问题摸排，了解企业在生产经营、市场开拓、融资贷款、产业政策等方面存在的问题；对上半年产值下降较大的企业开展调研分析，了解企业造成产值下降的原因，与企业一起研究解决办法；对五户存在较大风险的企业实施重点帮扶。按照市委、市政府主要领导要求，成立专项小组，多次到忠大集团、聚能重工、国锐化工、银恒镀锌、美忱集团等企业进行调研，帮扶企业分析问题，寻找解决办法，并向市委市政府主要领导汇报；对鞍山永安包装有限公司进行调研，了解企业发展情况及存在问题，形成调研报告上报市委主要领导，并在鞍山日报上以民营经济发展服务委员会名义全文刊登。截至目前，全市各级领导干部共联系对接工业企业900多户,搜集到150多户企业220项问题，目前已解决115项，其余问题正在推进中。', '五是开展清理拖欠民营企业中小企业账款工作。以市减负办名义先后制定并下发了清欠工作方案、整改工作方案，明确了工作要求和工作任务，细化了工作措施和节点目标，常务副市长、分管副市长分别召开了10余次专题会议听取工作情况汇报，研究部署清偿工作，及时协调解决清欠工作中存在的困难和问题。截止8月末，全市总还款进度为39.53%，其中政府部门还款进度为42.73%，大型国企还款进度为33.98%。', '六是组织开展我市优秀民营企业家赴南京学习培训。50余人赴南京市学习培训，先后邀请到南京大学商学院副院长于津平教授、南京大学张晓东教授、吴福象教授、河海大学商学院副院长唐震教授和原华为人力资源专家沈宗军等著名专家学者进行了授课。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>对市政协十四届三次会议关于设立老龄产业专项发展基金加快发展老龄产业的提案第号提案的答复</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-6-3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/202006/0160567868195834.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['对市政协十四届三次会议《关于设立老龄产业专项发展基金加快发展老龄产业的提案》第028号提案的答复-2020年-鞍山市政府', '对市政协十四届三次会议《关于设立老龄产业专项发展基金加快发展 老龄产业的提案》第028号提案的答复', '推进老龄和医养结合事业发展，是积极应对人口老龄化的重要举措，近年来，在市委、市政府的坚强领导，各部门大力配合下，老龄和医养工作取得一定进展,初步建立了以居家为基础、社区为依托、机构为补充、医养相结合的养老服务体系。', '1.医养结合政策体系初步建立。近年来，根据国家、省医养结合相关政策文件精神，我市先后制定出台了多个文件，为医养结合事业发展提供政策支持。出台《鞍山市人民政府办公厅关于出台推进医疗卫生与养老服务结合发展实施方案的通知》（鞍政办发〔2016〕148号），明确各部门职责任务，健全协调机制，合力推进医养结合发展。出台《关于建立和完善医疗机构为老年人提供就医服务绿色通道的通知》（鞍卫办发〔2017〕76号），强化医疗机构为老年人就医提供优先便捷服务，弘扬尊老敬老社会氛围。出台《关于加快推进医疗机构与养老机构签约服务工作的通知》（鞍卫发〔2018〕23号），落实医疗机构与养老机构签约服务工作，促进医疗、养老资源有效融合。', '今年以来，我委协调市委编办，市民政局、市场监督管理局、行政审批局等相关单位，先后出台了《医养结合机构服务指南》（鞍卫发〔2020〕11号）、《关于做好医养结合机构审批登记工作的通知》（鞍卫发〔2020〕17号），明确医养结合机构审批登记部门、事项、流程等，并实施更为规范的管理，以提高医养结合机构服务质量，进一步促进医养结合发展。', '2.政策引领，不断完善养老服务体系。2015年以来，先后出台了《关于加快养老服务业发展的若干政策》《鞍山市开展养老院服务质量建设专项行动实施方案》《鞍山市人民政府办公厅关于全面放开养老服务市场提升养老服务质量的实施意见》《制定和实施鞍山市老年人照顾服务项目实施方案》《鞍山市人民政府办公室关于鞍山市居家和社区养老服务改革试点工作实施方案》《鞍山市加强老年人合法权益保护专项行动实施方案》等文件，全面推进养老服务市场放开和居家和社区养老服务改革，有效促进老年人有效消费不断提升。通过不断完善政策体系和服务体系，全面落实各项养老扶持政策，我市的以居家养老为基础，社区服务为依托，机构养老为辅助，多种养老方式相互补充养老服务体系日趋完善。', '1.推动三级综合医院转型发展医养结合。为探索医养结合多元发展模式，着力解决市第二医院长期经营困难情况，我市于2017年推进市第二医院转型，走医养结合差异化发展道路，成立医养兼顾、瞬时医疗，功能康复等功能的三个养老病区，实现了“病时医疗、康时养老、全程无需家属陪护”的新型医康养结合模式，满足了老年人的特殊需求。目前医院设置76张床位、住院患者40名，配备医生5名、护士19名、护工11名。今年，为推动市第二医院率先打通医养结合通道，更好试行医养结合发展方向，通过引进社会资本，以公建民营的合作方式，建设医康养中心，实现长效化、规模化发展，全面提高市第二医院医养服务能力和水平。目前已签订协议，预计年底建成我市首家医养结合特色医院。', '同时，充分利用市第二医院建设医养结合特色医院的经验，逐步建立起“三级综合医院+社区卫生服务中心+医康养中心+幸福驿站”的一体化服务模式，构建健康教育、预防保健、疾病诊治、复康护理、长期照护、安宁疗护的综合连续服务体系。', '2.提高综合医院为老年人服务能力。一是鼓励二级以上医疗机构开设老年病科，增设老年医疗护理床位，开展老年慢性病防治和康复护理等工作。要求全市各医疗机构为老年人提供就医服务绿色通道，在明显位置设置 “老年人优先”标志, 对80岁以上老年人看病就医实行优先照顾，为行动不便的老年人提供导诊、轮椅等服务和设备。二是社区卫生服务中心开展老年人健康服务，为65岁以上老年人每年免费提供一次健康体检；对老年人慢性病（高血压、糖尿病等）进行免费随访；开展家庭医生签约服务，与有需求的老年人签订服务协议；为居家老人提供健康档案管理、健康教育、基本护理等医疗卫生服务。三是推动养生和养老相结合，将中医药养生保健和中医治未病理念融入养老服务中，鼓励养老机构设置以老年病、慢性病防治为主的中医门诊、诊所，社区卫生服务中心开展中医药健康养老服务；健全中医医院老年病科，开展老年病、慢性病中医药防治工作；推动中医医院开展社区和居家健康养老业务，与养老机构开展合作，目前，市中医院与我市多家养老院立合作关系，在千山区福兴老年公寓、经开区千千凯兴老年公寓等五家养老机构建立了“鞍山市中医治未病研究基地—养老服务示范点”工作室，配备中医理疗设备和各项治疗物品。', '3.积极参与幸福驿站建设。我们就“春风行动5号工程”社区幸福驿站建设情况与市建投集团、医大鞍山医院、市民政局、有关街道社区等单位沟通，对铁东区和平街道健身社区等5个社区进行实地调研，对项目进展情况、面临问题及下步规划进行深入探讨。组织市行政审批局、市公共服务集团、汤岗子医院、铁东区和平街道办事处等有关单位，到铁东区建身社区现场办公，协调解决8890幸福驿站办理医疗许有关事宜，部署医疗服务下一步工作开展。目前，汤岗子医院汤岗子医院已向和平街道健身社区8890幸福驿站派驻医护人员，以错时诊疗、预约诊疗方式开展服务。', '4.借鉴模式，转型升级养老服务模式。为了有效地促进发展养老服务业发展，我们通过走出去，请进来的方式，到南京、上海、青岛、杭州、苏州等地进行考察学习，将颐倍康养老服务发展公司引进鞍山，投资建设鞍山市养老服务智慧平台、市级居家和社区养老服务指导中心及设施配套并参与运营。成功与北京喜开路健康管理公司签约，引进检测设备，为老年人提供健康管理服务。组建鞍山华龄健康产业研究院，引入北京、南京、沈阳等地的养老服务方面的专家，为鞍山市养老服务发展助力。经入选全国居家和社区养老服务试点城市为契机，全面构建“一纵一横多点支撑”的居家和社区养老服务体系，全力推进我市的居家和社区养老服务，实现“一对接五融合”的居家和社区养老服务新格局，促进老年人群体的有效消费，激活养老服务市场活力。', '5.为了打造多种养老服务方式相补充的养老服务模式，我们通过放开养老服务市场，全面推进了民办养老机构发展，目前，全市共有民办养老机构135家，民办养老机构已成为养老服务业发展的主要力量。通过不间断投入，城乡社区养老服务设施进一步改善，社区日间照料服务逐步拓展，建成含日间照料功能的城镇社区养老服务设施306个，村级养老服务设施453个。2020年，我们已从759 个社区养老服务设施中选取了50个点位，设立网络互通、信息共享、服务对接的社区级服务网点，与春风行动五号工程同步推进，全面为老年人提供居家养老便民服务。', '6.关注重点，提升关爱老年人的能力。为科学分析研判老年人的需求结构和需求层次，2020年我们列入预算140万元，开展老年人养老服务需求评估，我们将根据评估结果，对养老服务进行科学划分，对有资源进行整合，通过简单方式引导老年人合理消费，有效消费。不断加强农村特困人员救助供养机构（敬老院）的维修改造工作，不断提升硬件设施水平和服务能力，满足农村特困供养人员的养老服务需求。', '为了全面推进关爱农村老年人服务，目前，我们已起草完成了《鞍山市农村老年人关爱服务实施方案》《鞍山市农村留守等老年人定期巡访实施方案》，重点针对农村空巢、独居、留守、特困供养和低保老年人开展定期巡访服务，采取普遍巡访和重点巡访相结合，采取电话问候、上门巡访等多种形式，针对老年人的健康状况、精神状态、安全情况、卫生环境、居住环境等方面进行询问、提醒和评估。', '7.自然资源局统筹规划养老用地，保障老龄事业发展。一是科学编制国土空间规划，保障养老用地空间需求。按照国家、省统一部署，鞍山市正在编制国土空间总体规划，将就城乡公用服务设施体系和中心城区用地功能布局进行专题研究，根据人口增长和老龄化发展变化趋势，统筹城乡公用服务体系,特别是养老服务用地的构成及布局，全面推进社区服务全覆盖和基本公共服务均等化。', '二是严格建设标准，落实规划保障。根据《国务院关于加快发展养老服务业的若干意见》的相关要求，鞍山市新建居住区养老设施配套严格执行《城市居住区规划设计标准》（GB50180-2018）、《城镇老年人设施规划规范》（GB20437）、《社区老年人日间照料中心建设标准》（建标143-2010）等相关标准、规范和政策文件，在编制居住用地控制性详细规划及用地规划条件时，统筹布置配套相关设施。为了加强城市居住区配套公共设施，包括养老服务设施的建设管理，提升城市居住区公共服务水平，进一步构建宜居环境，鞍山市城市规划委员会出台了《关于加强城市居住区配套公共设施规划建设管理的相关意见》，明确了城市居住区配套公共设施与住宅同步规划、同步建设、同步竣工、同步验收、同步移交。', '三是落实供地政策，保障用地供应。在养老、医养结合用地供应过程中，对所有市场主体一视同仁、平等对待，切实保障养老服务设施用地，促进养老服务发展。对于养老和医养结合项目，政府采取多种供应方式予以保障，符合《划拨用地目录》的，可以采取划拨方式供应土地，不符合《划拨用地目录》的，采取有偿方式供应土地。对于民间资本投资举办的非营利性养老服务机构，采取和政府投资的养老机构相同的土地使用政策，以划拨方式提供土地。', '对于民间资本投资举办的营利性养老服务机构，以出让方式提供土地，在确定底价时按照不低于所在级别公用服务用地基准地价的70%确定。对于产权人申请改变存量土地用途用于建设养老服务设施，在符合规划的前提下，允许依法依规办理土地用途改变手续。非营利性养老机构，原划拨土地可继续划拨使用，原有偿使用的土地可不增收改变规划条件的地价款；营利性养老机构，依法办理有偿使用手续。对于利用存量房屋以及社区用房等举办养老机构，所使用存量房屋在符合规划且不改变用地主体的条件下，可在五年内继续按原用途使用。', '1.切实开展老龄化国情教育系列活动。为贯彻落实省和国家工作部署，我委在全市开展了人口老龄化国情教育和老年健康宣传周活动，以健康讲座、义诊检查等活动，结合媒体、展板、横幅、大屏幕等媒介宣传涉老政策法规、健康老龄化、老年维权等诸多方面内容，倡导树立积极老龄观，引导老年人走出家门，丰富精神文化生活，营造积极应对人口老龄化的社会氛围。', '2.开展多种形式的敬老月和“重阳节”活动。在2019年“重阳节”、“敬老月”期间，向各地区下发了《关于开展2019年“敬老月”活动的通知》，要求各地组织开展“敬老月”及“走访慰问老年人”相关活动。各地围绕“庆祝中华人民共和国成立70周年”主题开展了大型晚会，走访慰问、文化体育、主题教育、公益志愿等孝亲敬老活动，营造浓厚的敬老爱老助老的节日氛围，呼吁社会各界为老年人享受幸福的晚年生活提供更多人力、财力支持，让广大老年人切实感受到党和政府的关爱，共享社会发展带来的成果。', '3.加强养老机构医疗服务能力。支持有条件的养老机构开办或内设医疗机构或与临近的医疗卫生机构签订协议，以签约合作的形式为养老机构提供医疗服务，所有养老机构能够以不同形式为入住老年人提供医疗卫生服务。为有效地推进医养结合工作，市民政局在全市各个养老机构开展了宣传工作，通过政策引导，建立了养老机构与医疗机构的合作机制，海城市春寿圆华老年公寓建立了双栗医院，与养老机构成为一个整体，不仅为养老机构的老年人服务，还为机构周边的老年人开展医疗服务。', '4.引入机制，强化健康管理保障服务体系。为了促进医养结合工作，市民政局以老年人的健康管理为切入点，积极开展招商引资工作，与北京喜开路健康管理有限公司洽谈，针对来鞍投资建设老年人健康管理体系，开展健康管理服务等事宜进行了深入的磋商，最终成功达成协议，北京喜开路健康管理有限公司同意在鞍山的100个社区中投入健康管理设备，以市场化的行为，为社区中的老年人开展健康管理服务活动。', '结合提案中的建议，下一步的工作安排如下。一是按照国家、省政策文件精神，结合我市实际出台相关文件，加快推进老龄事业发展。二是要推进医养联动工作机制，积极支持医疗机构与养老机构开展多种形式的合作，所有养老机构以不同形式为老年人提供医疗服务。三是继续加强老年人就医绿色通道，各级医疗机构为老年人开通绿色通道。四是指导推进医养特色医院建设。五是宣传力度，引导社会各界投资参与到老龄事业发展中。', '感谢张静委员对老龄工作的关注，今后，我市老龄工作将在市委、市政府的坚强领导下，在全市各级共同努力下，紧紧抓住国家倡导老龄事业发展的历史机遇，进一步开拓进取，奋发有为，努力开创我市老龄事业工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>鞍山市医疗保障局年上半年政府工作报告和重强抓专项行动执行情况</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-6-25</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201906/0156931073218569.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['鞍山市医疗保障局2019年上半年政府工作报告和“重强抓”专项行动执行情况-政府工作报告和“重实干、强执行、抓落实”专项行动执行情况-鞍山市人民政府', '年初以来，市医疗保障局全面贯彻执行《政府工作报告》和“重实干、强执行、抓落实”专项行动计划，全力保障各项工作有序推进。上半年10项任务指标具体进展情况如下：', '落实情况：6月底节点任务已经完成，城乡居民基本医疗保险实施办法（草稿）已经形成，正在就政策指标进行测算、调研、论证。', '落实情况：按省医保局确定的节点计划，提高城乡居民基本医疗保险补助标准工作上半年没有节点任务，全年第一项指标节点是7月31日。目前我局正在开展相关工作，确保7月31日节点任务按时完成。', '落实情况：6月底节点任务已经完成，制定《关于拟调整完善病种费用情况的工作方案》。对2018年各医院已执行的5000多例单病种按医院、病种、每个病种平均统筹费用，统筹支出费用进行统计，初步拟定新增33个病种目录。对徐州和柳州以单病种付费为主的支付方式改革情况考察学习。', '下一步工作安排：对调整完善的病种进行费用测算，确定新增病种的结算标准，安排试点医院开展试点工作。', '落实情况：6月底节点任务已经完成。制定《鞍山市欺诈骗取医保基金行为举报奖励办法（试行）》，并于5月22日在市政府新闻发布厅召开专题新闻发布会。', '下一步工作安排：全面开展打击欺诈骗保专项治理自查工作，有效保障医保基金安全健康运行，着重在如何创新理念、破解难题上下功夫，就基金监管方式探索出鞍山特色、鞍山路径、鞍山经验。', '1.降低并统一大病保险起付线，报销比例由50%提高到60%。把高血压、糖尿病等门诊用药纳入医保报销。加强罕见病用药保障。（指标编码：95-29）', '落实情况：6月底节点任务已经完成，已对我市2018年大病保险报销完成情况进行调研和数据汇总，并对降低2019年大病保险起付标准等数据进行测算；完成罕见病用药调研情况，形成调研报告。', '下一步工作安排：在城乡医保整合工作过程中，结合我市实际，根据对大病保险加权测算起付标准；研究制定将罕见病纳入我市特病管理的实施办法，加强罕见病用药保障。', '2.深化医保支付方式改革，优化医保支出结构。抓紧落实和完善跨省异地就医直接结算政策，尽快使异地就医患者在所有定点医院能持卡看病、即时结算，切实便利流动人口和随迁老人。（指标编码：95-30）', '落实情况：6月底节点任务已经完成，开展我市跨省异地就医结算政策落实调研工作并形成调研报告。通过简化办事流程、规范办事材料、缩短办事时间等方式，保证了异地就医结算平稳、便捷运行。', '落实情况：该项指标上半年没有节点任务，全年第一项指标节点是9月30日。目前我局正在开展相关工作，确保9月30日节点任务按时完成。', '下一步工作安排：继续配合卫健委推行分级诊疗工作，将推行分级诊疗的医保差异化支付政策纳入我市城乡居民医疗保险制度整合工作方案。', '落实情况：6月底节点任务已经完成，会同市卫健委、市扶贫办、市民政局印发《转发省卫健委转发关于进一步加强农村贫困人口大病专项救治工作的通知》。对于21种大病医疗费用合规部分，基本医疗保险报销提高至80%，大病保险按规定政策报销，符合医疗救助条件的按规定给予医疗救助。', '落实情况：6月底节点任务已经完成，下发了《关于转发省医疗保障局省卫生健康委&lt;关于制定我省公立医院部分新增医疗康复项目价格和医保类别的通知&gt;的通知》，指导县（市）区医疗保障局、市医保中心、有关医疗单位按照通知要求开展工作。', '落实情况：6月底节点任务已经完成，全力配合市卫健委、市民政局、市扶贫办解决贫困户大病用药吃药等问题。会同市扶贫办，对各地区建档立卡贫困人员就医用药吃药信息进行统计，为贫困户报销医药费提供数据支持。', '下一步工作安排：继续积极配合市卫健委、市民政局、市扶贫办解决贫困户大病用药吃药等问题，为贫困户报销医药费提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>36</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>岫岩县扶贫办赴凌源市阜蒙县考察学习贫困县摘帽工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019-2-14</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201902/015692942055949.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为学习已顺利“摘帽”的“贫困县”先进经验和做法，1月14日至16日,岫岩县扶贫办一行4人赴凌源市、阜蒙县考察，以增添工作举措，扎实推进岫岩县脱贫攻坚“摘帽”工作。', '在凌源市、阜蒙县，岫岩县扶贫办一行先后通过座谈等方式，实地考察学习了第三方对贫困县“摘帽”评估和省行业部门对贫困县“摘帽”验收等方面情况。', '通过考察，详细了解了第三方对贫困县“摘帽”评估范围、评估内容、评估样本抽取、评估方式；省行业部门对贫困县“摘帽”验收范围、验收内容、验收样本抽取、验收方式。大家一致表示，凌源市、阜蒙县在脱贫攻坚中很多做法值得借鉴和学习。在下一步的工作中，一定要认真总结凌源市、阜蒙县针对贫困县“摘帽”相关工作先进做法，结合岫岩县实际，进一步增添“摘帽”工作举措，扎实推进脱贫攻坚工作，全面完成各项脱贫目标任务，确保岫岩县顺利“摘帽”，切实为贫困群众谋利益、增福祉。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>鞍山市民宗局政府工作报告和重实干强执行抓落实专项行动一季度执行情况汇报</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-5-5</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201905/0156931073218577.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['鞍山市民宗局《政府工作报告》和“重实干、强执行、抓落实”专项行动一季度执行情况汇报-政府工作报告和“重实干、强执行、抓落实”专项行动执行情况-鞍山市人民政府', '鞍山市民宗局《政府工作报告》和“重实干、强执行、抓落实”专项行动一季度执行情况汇报', '一季度以来，市民宗局坚决遵循我市2019年《政府工作报告》提出的工作要求，无条件认领本部门应当承担的工作任务。以年度工作目标为总领，制定阶段计划、分解重点任务，细化指标、落实责任，确保各项工作任务有序开展、取得实效。根据市政府关于信息公开工作相关要求，现将第一季度《政府工作报告》执行结果情况报告如下。', '截止一季度，已向上争取民族专项资金1653万元，完成全年1800万元争取资金计划的91.8%。其中：少数民族发展资金1486万元，已全部切块分配到县（市）区；少数民族地区补助费167万元，正在抓紧调研编制预算。全年计划实施少数民族经济项目20个，其中百乡万户惠民工程项目至少12个，目前项目申报工作除岫岩县外均已完成。', '1、全面维护民族宗教领域安全稳定。全面加强“两会”期间民族宗教领域安全稳定管理，下发相关文件，要求各县（市）区民宗局切实履行职责，维护特殊时期民族宗教领域的安全稳定。与市五教团体负责人组成安全检查小组，实地检查全市宗教活动场所消防、食品等安全情况，严防安全事故发生。加强宗教活动场所隐患排查，严密关注重点人员、重点场所，加大大型宗教活动管理和宗教反渗透、反恐工作力度，保障全市民族宗教领域安全稳定。', '2、全面落实宗教工作督查整改工作。全力开展宗教工作督查整改工作，组成联合调研组赴北京等四地进行考察学习,完善整改方案，制定整改措施。加强对基层宗教工作督促整改工作的督促检查，组成联合督导组，深入十个县市区（开发区）推动宗教重点、难点问题的整改落实。在全市开展新一轮依法整治乱建佛道教活动场所工作，强化对各宗教团体和宗教活动场所的管理和监督，全面提升宗教事务依法管理水平。召开全市民宗局长会议，传达省民宗委会议精神，总结部署民族宗教工作，并进一步明确宗教管理工作的属地责任。', '3、全面改进少数民族流动人口服务管理工作。根据《中共辽宁省委办公厅辽宁省人民政府办公厅印发﹤关于加强和改进少数民族流动人口服务管理工作的实施意见﹥的通知》精神，按照韩玉起书记批示要求，结合鞍山实际，起草《鞍山市关于加强和改进少数民族流动人口服务管理工作的实施意见》。目前，该“实施意见”已起草完成，下一步将征求相关部门意见，经市委、市政府主要领导同意后，以市委文件下发相关地区和部门。', '4、全面推进民族团结进步创建事业。结合“四产融合”工作思路，围绕民族团结进步创建“六进”活动，制定“2019年全市民族团结进步创建活动方案”。并坚持“以点带面、节节推进、全面展开”的方式，下移工作重心，深入各县（市）区和相关创建单位开展专题调研，切实帮助他们解决在民族团结进步创建活动中遇到的困难和问题，指导他们结合本地区、本单位实际开展民族团结进步创建系列活动，推动民族团结进步创建活动向纵深拓展。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>对市政协十三届三次会议关于倡导绿色出行建立公共自行车租赁系统的提案第号提案的答复</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2015-6-3</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201506/0157309383863849.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['对市政协十三届三次会议《关于倡导绿色出行建立公共自行车租赁系统的提案》第293号提案的答复-2015年-鞍山市政府', '对市政协十三届三次会议《关于倡导绿色出行建立公共自行车租赁系统的提案》第293号提案的答复', '一是组织相关人员进行考察学习。特别是公共自行车租赁系统建设较好的杭州、苏州等市学习先进城市的成功经验。', '二是通过学习公共自行车租赁系统的成功经验，结合我市城市发展实际情况及公共自行车使用需求情况，制定发展规划，并上报市委市政府，待批复后进行实施。', '感谢您对鞍山市交通委的建议和提案，我委及下属市公交总公司将本着求真务实的精神，根据市民的出行需求及广大代表建议和意见，逐步完善公交线网结构，为广大市民提供优质、舒适、安全、快捷的公交服务。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>鞍山日报社驻村工作队组织火石岭村两委干部考察学习精准扶贫工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-4-8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201804/0156929409060661.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['鞍山日报社驻村工作队组织火石岭村两委干部考察学习精准扶贫工作-扶贫信息-鞍山市人民政府', '为进一步提高村干部带领村民脱贫致富、多元化经营能力，充分发挥“领头羊”作用，加快攻坚致富项目实施工作，改善村级公共基础，促进产业发展，提升村民脱贫致富信心和能力，鞍山日报社驻火石岭村帮扶工作队经过充分筹划准备，3月27日组织对口帮扶村--大营子镇火石岭村两委班子成员一行赴清凉山镇、汤沟村参观考察学习，寻找符合火石岭村村情的发展之路。', '参观学习中，考察组成员与镇、村领导及项目负责人进行了深入的交流，认真听取情况介绍，详细了解了精准扶贫、精准脱贫运行模式，项目整体规划、推进建设、质量监督以及产生社会经济效益情况，并就具体问题进行互动交流。', '考察学习结束后，工作队与汤沟村“两委”班子进行了座谈。通过此次学习考察，火石岭村两委班子成员对现代农业发展和新农村村庄建设规划布局有了直观感性认识，大家开阔了视野，受到了触动，得到了启发，获得了经验，增强了改善村容村貌发展村级旅游、调优产业结构的信心和发展种养殖业的决心，认识到在基础设施建设方面要高起点的规划、产业发展方面要多种经营方式并存才能有效推动火石岭村又好又快发展。火石岭村两委班子成员还表示：要换脑子，转观念，认真学习和借鉴外地先进经验和理念，因地制宜引导发展本村的种植业和养殖业，借助党和政府一系列支农惠农的好政策，与党员代表齐心协力，与村民一道脱贫致富，让每个村民的日子都过得红红火火。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>对市十五届人大五次会议关于支持我市出租车行业信息化建设的建议第号建议的答复</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016-3-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201603/0157243652520257.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['对市十五届人大五次会议《关于支持我市出租车行业信息化建设的建议》第170号建议的答复-2016年-鞍山市政府', '对市十五届人大五次会议《关于支持我市出租车行业信息化建设的建议》第170号建议的答复', '童建民代表： 您提出的《关于支持我市出租车行业信息化建设的建议》收悉，现答复如下： 一、鞍山市出租汽车行业总体情况 1.基本情况。目前鞍山行政区域内出租汽车总数为9116台，其中鞍山市区出租汽车总数为5375台，出租汽车企业有21家，拥有车辆总数3280台，占市区总数61.02%，个体出租车2095台，占市区总数38.98%，市区从业人员总数为20177人，每天出租汽车载客量达35万人次以上，已成为我市城市公共交通的重要组成部分。 2.信息化建设现状。出租汽车行业信息化建设起步于2008年，当年由政府牵头，原公用事业管理局与天宇星媒体广告公司合作（2018年到期），通过市场化运作，建立了出租汽车GPS安全监控系统平台，目前该系统具备车辆定位、安全报警及车载显示屏信息发布功能。 二、行业存在的问题 随着城市区域的不断扩大，机动车数量的快速增长,出租汽车行业面临着一系列新的问题： 一是“打车难”问题。由于市区机动车数量爆发式增长，交通拥堵现象日趋严重，特殊时段出租车拒载、强行拼客等违章行车现象严重，市民出行“打出难”问题日益突出。 二是管理模式转型问题。随着互联网产业迅速发展，市民利用打车软件叫车已成为趋势，而现行的管理模式已越来越无法适应出租汽车行业信息化管理要求，管理方式和手段亟待转型升级。 三是信息化建设资金落实问题。在行业信息化建设工作中，虽然通过各种合作方式尝试推进建设，但都因建设资金无法落实而遭到搁浅，目前交通行业信息化建设面临的最大难题就是资金落实问题。 三、目前行业信息化建设情况 1、政府牵线、加快推进。为适应当前行业的新常态，有效解决行业存在的突出问题，2014年9月，按照前任市长吴忠琼的指示精神，由交通委主要领导带队，两次赴武汉、成都、上海、苏州等城市进行实地考察学习。通过对比各市的做法和经验，并多次召开专题研讨会进行分析论证，最后拟定与上海大潮电子技术有限公司合作，共同建设“鞍山市出租车智能管理信息系统”项目。 2、广泛合作，推进艰难。经过多方磋商、洽谈，2015年初，系统功能项目建设方案基本确定，并已报请市政府批准；在研究落实建设资金的过程中，我们主要采取以下方式：一是通过上海大潮公司全额融资方式解决建设资金问题，需要市政府提供担保并分期偿还，但政府目前没有该项目资金立项，无法实施。二是在2015年6月，通过PPP模式，与鞍山联通公司、上海大潮公司共同合作，由两公司共同投资，虽然我们给予其优惠政策支持，但是因建设资金回收仍然存在缺口而无法推进，因此，在2015年信息化建设工作没有得到实质性进展。三是2016年初，我委通过多方努力，与鞍重集团、鞍山联通等3家企业达成合作意向，这次投资合作单位已提出了初步解决方案，目前针对建设预算、功能设计以及对前期合作单位（天宇星媒体广告公司）合同期未满等问题上，正在进一步与合作投资单位研究、商讨中。 四、今后打算及相关建议 2015年10月10日，交通运输部发布了《关于深化改革进一步推进出租汽车行业发展的指导意见》、《网络预约出租汽车经营服务管理办法》两个征求意见稿，广泛征求社会意见。这是国家为适应当今互联网时代的新要求，在出租汽车行业推出一项新的重大举措，我们将坚定不移加快推进出租汽车行业信息化建设。 今后将我们继续探索信息化建设的新方式、新思路，尽快实现出租汽车行业信息化。同时出租汽车行业是城市综合体系的重要组成部分，也需要政府给予更大关注和支持。我们建议：政府应将交通信息化建设纳入城市综合体系规划，将交通行业信息化建设项目资金纳入政府财政预算，每年通过拨付专项资金开展城市交通信息化建设。只有得到政府高度重视和大力支持，“智慧交通”才能早日实现，才能为加快实现“智慧鞍山”提供有力支撑。 最后，感谢您对鞍山出租汽车行业的关注和支持！希望今后继续关注支持交通运输行业的发展，积极为我市交通运输事业发展出谋划策。 鞍山市交通委员会 2016年3月11日', '2.信息化建设现状。出租汽车行业信息化建设起步于2008年，当年由政府牵头，原公用事业管理局与天宇星媒体广告公司合作（2018年到期），通过市场化运作，建立了出租汽车GPS安全监控系统平台，目前该系统具备车辆定位、安全报警及车载显示屏信息发布功能。', '一是“打车难”问题。由于市区机动车数量爆发式增长，交通拥堵现象日趋严重，特殊时段出租车拒载、强行拼客等违章行车现象严重，市民出行“打出难”问题日益突出。', '二是管理模式转型问题。随着互联网产业迅速发展，市民利用打车软件叫车已成为趋势，而现行的管理模式已越来越无法适应出租汽车行业信息化管理要求，管理方式和手段亟待转型升级。', '三是信息化建设资金落实问题。在行业信息化建设工作中，虽然通过各种合作方式尝试推进建设，但都因建设资金无法落实而遭到搁浅，目前交通行业信息化建设面临的最大难题就是资金落实问题。', '1、政府牵线、加快推进。为适应当前行业的新常态，有效解决行业存在的突出问题，2014年9月，按照前任市长吴忠琼的指示精神，由交通委主要领导带队，两次赴武汉、成都、上海、苏州等城市进行实地考察学习。通过对比各市的做法和经验，并多次召开专题研讨会进行分析论证，最后拟定与上海大潮电子技术有限公司合作，共同建设“鞍山市出租车智能管理信息系统”项目。', '2、广泛合作，推进艰难。经过多方磋商、洽谈，2015年初，系统功能项目建设方案基本确定，并已报请市政府批准；在研究落实建设资金的过程中，我们主要采取以下方式：一是通过上海大潮公司全额融资方式解决建设资金问题，需要市政府提供担保并分期偿还，但政府目前没有该项目资金立项，无法实施。二是在2015年6月，通过PPP模式，与鞍山联通公司、上海大潮公司共同合作，由两公司共同投资，虽然我们给予其优惠政策支持，但是因建设资金回收仍然存在缺口而无法推进，因此，在2015年信息化建设工作没有得到实质性进展。三是2016年初，我委通过多方努力，与鞍重集团、鞍山联通等3家企业达成合作意向，这次投资合作单位已提出了初步解决方案，目前针对建设预算、功能设计以及对前期合作单位（天宇星媒体广告公司）合同期未满等问题上，正在进一步与合作投资单位研究、商讨中。', '2015年10月10日，交通运输部发布了《关于深化改革进一步推进出租汽车行业发展的指导意见》、《网络预约出租汽车经营服务管理办法》两个征求意见稿，广泛征求社会意见。这是国家为适应当今互联网时代的新要求，在出租汽车行业推出一项新的重大举措，我们将坚定不移加快推进出租汽车行业信息化建设。', '今后将我们继续探索信息化建设的新方式、新思路，尽快实现出租汽车行业信息化。同时出租汽车行业是城市综合体系的重要组成部分，也需要政府给予更大关注和支持。我们建议：政府应将交通信息化建设纳入城市综合体系规划，将交通行业信息化建设项目资金纳入政府财政预算，每年通过拨付专项资金开展城市交通信息化建设。只有得到政府高度重视和大力支持，“智慧交通”才能早日实现，才能为加快实现“智慧鞍山”提供有力支撑。', '最后，感谢您对鞍山出租汽车行业的关注和支持！希望今后继续关注支持交通运输行业的发展，积极为我市交通运输事业发展出谋划策。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>鞍山市人民政府办公厅关于印发鞍山市国民经济和社会发展十三五规划编制工作方案的通知</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2014-12-1</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.anshan.gov.cn/html/ASSZF/201412/0157244258132781.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['鞍山市人民政府办公厅关于印发鞍山市国民经济和社会发展“十三五”规划编制工作方案的通知-鞍政办发-鞍山市政府', '鞍山市人民政府办公厅关于 印发鞍山市国民经济和社会发展“十三五”规划 编制工作方案的通知', '时期是我市实现全面深化改革、全面振兴鞍山老工业基地和全面建设小康社会目标的攻坚时期。科学编制和有效实施', '规划对于我市保持经济增长、优化产业结构、转变发展方式、全面提升城市综合竞争力具有十分重要的意义。为做好全市', '（一）指导思想。全面贯彻党的十八大和十八届三中、四中全会精神，以马克思列宁主义、毛泽东思想、邓小平理论、', '时期工作的指导方针、主要任务、发展重点和保障措施，使其成为指导全市未来五年国民经济和社会发展的行动纲领。', '突出科学发展。紧紧围绕振兴老工业基地目标，加快推进产业结构优化升级，确保转变经济发展方式取得实质性进展。科学确定目标，细化战略任务，继续做大经济规模，不断提升发展质量，大力提升自主创新能力，形成产业新格局和竞争新优势。把节约资源和保护环境放在突出位置，实现经济社会发展与人口资源环境相协调。', '突出改革创新。以改革的办法有效解决发展中的各种深层次矛盾和问题，在重要领域和关键环节实现率先突破。加快推进体制机制创新，进一步简政放权，转变职能，加强法制建设，打造促进经济社会健康发展的市场环境。', '规划编制工作的重中之重。大力发展社会事业，促进基本公共服务不断完善，实现经济发展和民生改善的良性循环。', '个总体规划。总体规划是以全市国民经济和社会发展为对象编制的规划。要突出地方特色，明确全市国民经济和社会发展的总体发展战略目标、战略任务、战略布局，支柱产业、优势产业的发展方向和目标，重大建设工程和重点项目布局，经济社会发展的主要政策、措施等。鞍山市国民经济和社会发展第十三个五年规划纲要由市发展改革委会同市直有关部门负责起草。', '时期发展环境、思路目标、结构调整、产业布局、城乡区域、科教文化、改革开放、人民生活和资源环境等重大问题开展前瞻研究，理清长远发展思路，形成前期课题研究报告，为制定规划思路提供充分的支撑和指导。', '期间我市发展的有利条件和制约因素，提出指导思想、发展目标和主要任务，确定一批重大项目，对事关全局长远发展的重大问题提出对策措施，起草', '个专项规划。专项规划是以国民经济和社会发展特定领域为对象编制的规划，是总体规划在特定领域的延伸和细化，是指导该领域发展和决定该领域重点工程、重大项目建设以及安排政府投资的重要依据。围绕', '总体规划的编制与实施，市直有关部门按照规划编制程序，组织编制产业发展、城乡建设、社会事业等重点领域、重点行业的市级重点专项规划。专项规划由市直有关部门负责起草。具体分工如下：', '的经济、社会发展为对象编制的规划。各县（市）区政府、各开发区管委会、市政府有关部门要按照国家、省及我市总体规划和即将批准实施的主体功能区规划要求，积极处理好与城市总体规划、土地利用规划的关系，并在结合现有规划成果的基础上，编制好各地区规划。具体分工如下：', '规划基本思路；组织召开座谈会、专家咨询会等，听取各方面意见和建议；研究提出纳入国家和省规划的重大项目等。', '月底。开展规划纲要和专项规划的研究起草工作，明确目标要求、战略重点、重大项目以及保障措施等，形成规划框架；做好征求人大、政协和社会各界意见，广泛开展咨询论证，加强各方面的协调和衔接等工作。', '总体规划纲要草案；广泛征求人大、政协和社会各界对纲要草案的意见和建议，组织专家开展咨询论证工作；吸纳各方面意见和建议，进一步对纲要草案进行修改完善，履行市委、市政府决策程序后，报市人民代表大会审议。', '（一）突出规划重点。科学界定规划编制领域，重点突出政府履行公共职责的基础设施、重要资源、生态环境、公共服务等领域。对一般的竞争性领域，规划内容主要是规范市场秩序，制定政策导向，促进形成公开、公平和公正的市场竞争环境。', '规划要加强战略思维，坚持与时俱进，增强规划的战略性、宏观性、政策性和前瞻性。把科学制定发展规划作为改革创新、推动发展的首要任务，强化调研论证，积极借用外脑，通过广泛征求意见、赴外考察学习、聘请国内专业规划编制机构及专家学者参与前期课题研究等方式，进一步科学地明确今后发展的方向、思路、目标和重点。', '（三）加强对重大工程的研究和论证。要研究确定一批关系全局、意义深远、带动作用强的重大工程，特别是需要国家和省审批、平衡和协调的重大项目，尽早启动新建项目的前期研究及论证工作，搞好与国家和省总体规划的衔接，力争纳入国家和省总体规划中。', '（四）增强规划编制的民主性和科学性。要广泛听取社会各界意见，增强规划工作的透明度和公众参与度。提高编制程序的科学化水平，建立和完善民主制度、衔接制度、论证制度、公布制度和评估制度等。加强规划评估论证工作，广泛吸收本部门、本系统和其他相关部门的专家（五）加强组织领导。', '规划由市政府和相关县（市）区政府、开发区管委会负总责，具体工作由市发展改革委负责。各地区、各部门要加强', '规划纲要、专项规划以及由市直各部门负责编制的区域发展规划所需经费，列入市级财政预算安排；各地编制规划所需经费，由同级财政部门列入本级财政预算解决。', '鞍山市人民政府办公厅关于印发鞍山市国民经济和社会发展“十三五”规划编制工作方案的通知']</t>
         </is>
